--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N2">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O2">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P2">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q2">
-        <v>577.6128475854917</v>
+        <v>454.7895679093814</v>
       </c>
       <c r="R2">
-        <v>5198.515628269426</v>
+        <v>4093.106111184432</v>
       </c>
       <c r="S2">
-        <v>0.6075720035928306</v>
+        <v>0.5923664276554623</v>
       </c>
       <c r="T2">
-        <v>0.6075720035928306</v>
+        <v>0.5923664276554623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q3">
-        <v>18.22970994098834</v>
+        <v>18.15883421587467</v>
       </c>
       <c r="R3">
-        <v>164.067389468895</v>
+        <v>163.429507942872</v>
       </c>
       <c r="S3">
-        <v>0.01917523379208268</v>
+        <v>0.02365200196717961</v>
       </c>
       <c r="T3">
-        <v>0.01917523379208268</v>
+        <v>0.02365200196717962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N4">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O4">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P4">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q4">
-        <v>226.7281782347145</v>
+        <v>187.0253045535644</v>
       </c>
       <c r="R4">
-        <v>2040.55360411243</v>
+        <v>1683.22774098208</v>
       </c>
       <c r="S4">
-        <v>0.2384879320064451</v>
+        <v>0.2436016992404819</v>
       </c>
       <c r="T4">
-        <v>0.2384879320064451</v>
+        <v>0.2436016992404819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H5">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N5">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q5">
-        <v>15.13136833599723</v>
+        <v>4.366569569848</v>
       </c>
       <c r="R5">
-        <v>136.182315023975</v>
+        <v>39.299126128632</v>
       </c>
       <c r="S5">
-        <v>0.01591618991065161</v>
+        <v>0.005687485816990641</v>
       </c>
       <c r="T5">
-        <v>0.01591618991065161</v>
+        <v>0.005687485816990641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N6">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O6">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P6">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q6">
-        <v>59.91425075062</v>
+        <v>47.358242516488</v>
       </c>
       <c r="R6">
-        <v>539.2282567555801</v>
+        <v>426.2241826483921</v>
       </c>
       <c r="S6">
-        <v>0.06302183465011933</v>
+        <v>0.06168442488356018</v>
       </c>
       <c r="T6">
-        <v>0.06302183465011935</v>
+        <v>0.06168442488356019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q7">
         <v>1.890919526948</v>
@@ -883,10 +883,10 @@
         <v>17.018275742532</v>
       </c>
       <c r="S7">
-        <v>0.001988996211602722</v>
+        <v>0.002462935221472211</v>
       </c>
       <c r="T7">
-        <v>0.001988996211602722</v>
+        <v>0.002462935221472212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N8">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O8">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P8">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q8">
-        <v>23.51791339089867</v>
+        <v>19.47535817605333</v>
       </c>
       <c r="R8">
-        <v>211.661220518088</v>
+        <v>175.27822358448</v>
       </c>
       <c r="S8">
-        <v>0.02473772150145273</v>
+        <v>0.02536678315444126</v>
       </c>
       <c r="T8">
-        <v>0.02473772150145274</v>
+        <v>0.02536678315444126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N9">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q9">
-        <v>1.569536758873334</v>
+        <v>0.454700536788</v>
       </c>
       <c r="R9">
-        <v>14.12583082986</v>
+        <v>4.092304831092</v>
       </c>
       <c r="S9">
-        <v>0.001650944222046804</v>
+        <v>0.0005922504640295479</v>
       </c>
       <c r="T9">
-        <v>0.001650944222046804</v>
+        <v>0.0005922504640295479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H10">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N10">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O10">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P10">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q10">
-        <v>17.305683729495</v>
+        <v>22.012947866762</v>
       </c>
       <c r="R10">
-        <v>155.751153565455</v>
+        <v>198.116530800858</v>
       </c>
       <c r="S10">
-        <v>0.01820328093640073</v>
+        <v>0.0286720105519174</v>
       </c>
       <c r="T10">
-        <v>0.01820328093640074</v>
+        <v>0.0286720105519174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H11">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q11">
-        <v>0.5461748228729999</v>
+        <v>0.8789328056769999</v>
       </c>
       <c r="R11">
-        <v>4.915573405857</v>
+        <v>7.910395251093</v>
       </c>
       <c r="S11">
-        <v>0.0005745033768415142</v>
+        <v>0.001144815807102723</v>
       </c>
       <c r="T11">
-        <v>0.0005745033768415142</v>
+        <v>0.001144815807102723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H12">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N12">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O12">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P12">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q12">
-        <v>6.792934335682</v>
+        <v>9.052490578946665</v>
       </c>
       <c r="R12">
-        <v>61.13640902113799</v>
+        <v>81.47241521052</v>
       </c>
       <c r="S12">
-        <v>0.00714526475970392</v>
+        <v>0.01179092900104481</v>
       </c>
       <c r="T12">
-        <v>0.007145264759703921</v>
+        <v>0.01179092900104481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H13">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N13">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q13">
-        <v>0.453346347665</v>
+        <v>0.211352843337</v>
       </c>
       <c r="R13">
-        <v>4.080117128985</v>
+        <v>1.902175590033</v>
       </c>
       <c r="S13">
-        <v>0.0004768601493607678</v>
+        <v>0.0002752884798081154</v>
       </c>
       <c r="T13">
-        <v>0.0004768601493607678</v>
+        <v>0.0002752884798081154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H14">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N14">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O14">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P14">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q14">
-        <v>0.6877950609366666</v>
+        <v>1.420619004628667</v>
       </c>
       <c r="R14">
-        <v>6.190155548430001</v>
+        <v>12.785571041658</v>
       </c>
       <c r="S14">
-        <v>0.0007234690588711202</v>
+        <v>0.001850365672853384</v>
       </c>
       <c r="T14">
-        <v>0.0007234690588711203</v>
+        <v>0.001850365672853384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H15">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.295537</v>
       </c>
       <c r="O15">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P15">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q15">
-        <v>0.02170710799133333</v>
+        <v>0.05672246421033333</v>
       </c>
       <c r="R15">
-        <v>0.195363971922</v>
+        <v>0.510502177893</v>
       </c>
       <c r="S15">
-        <v>2.283299471199574E-05</v>
+        <v>7.388138572867397E-05</v>
       </c>
       <c r="T15">
-        <v>2.283299471199574E-05</v>
+        <v>7.388138572867398E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H16">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N16">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O16">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P16">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q16">
-        <v>0.2699775841497778</v>
+        <v>0.5842079958355555</v>
       </c>
       <c r="R16">
-        <v>2.429798257348</v>
+        <v>5.257871962519999</v>
       </c>
       <c r="S16">
-        <v>0.0002839805631275445</v>
+        <v>0.0007609347881300129</v>
       </c>
       <c r="T16">
-        <v>0.0002839805631275446</v>
+        <v>0.000760934788130013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H17">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N17">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O17">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P17">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q17">
-        <v>0.01801774397888889</v>
+        <v>0.013639784537</v>
       </c>
       <c r="R17">
-        <v>0.16215969581</v>
+        <v>0.122758060833</v>
       </c>
       <c r="S17">
-        <v>1.895227375089838E-05</v>
+        <v>1.776590979717201E-05</v>
       </c>
       <c r="T17">
-        <v>1.895227375089838E-05</v>
+        <v>1.776590979717201E-05</v>
       </c>
     </row>
   </sheetData>
